--- a/resultados/Venda de Drone/Com SPAD 2 Drones/vel10/field_64ha_100ha_10%_12m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 2 Drones/vel10/field_64ha_100ha_10%_12m_0_TSP/Planilha_Unificada.xlsx
@@ -2727,28 +2727,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1178.87557403947</v>
+        <v>1282.475987585272</v>
       </c>
       <c r="AB2" t="n">
-        <v>1612.989568720567</v>
+        <v>1754.740225061607</v>
       </c>
       <c r="AC2" t="n">
-        <v>1459.048108126953</v>
+        <v>1587.2702807751</v>
       </c>
       <c r="AD2" t="n">
-        <v>1178875.57403947</v>
+        <v>1282475.987585272</v>
       </c>
       <c r="AE2" t="n">
-        <v>1612989.568720567</v>
+        <v>1754740.225061607</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.279114660367293e-06</v>
+        <v>1.844054087556978e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>24</v>
+        <v>23.759765625</v>
       </c>
       <c r="AH2" t="n">
-        <v>1459048.108126953</v>
+        <v>1587270.2807751</v>
       </c>
     </row>
     <row r="3">
@@ -2833,28 +2833,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>580.3287696153026</v>
+        <v>640.762433692238</v>
       </c>
       <c r="AB3" t="n">
-        <v>794.0314248860536</v>
+        <v>876.7194302212089</v>
       </c>
       <c r="AC3" t="n">
-        <v>718.2501801250321</v>
+        <v>793.0465582843444</v>
       </c>
       <c r="AD3" t="n">
-        <v>580328.7696153026</v>
+        <v>640762.4336922381</v>
       </c>
       <c r="AE3" t="n">
-        <v>794031.4248860537</v>
+        <v>876719.4302212088</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.007089624373408e-06</v>
+        <v>2.893549687606741e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.14322916666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>718250.1801250321</v>
+        <v>793046.5582843444</v>
       </c>
     </row>
     <row r="4">
@@ -2939,28 +2939,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>469.3865219720678</v>
+        <v>529.64950433986</v>
       </c>
       <c r="AB4" t="n">
-        <v>642.2353472340452</v>
+        <v>724.6898183248047</v>
       </c>
       <c r="AC4" t="n">
-        <v>580.9413070769982</v>
+        <v>655.5264391724328</v>
       </c>
       <c r="AD4" t="n">
-        <v>469386.5219720678</v>
+        <v>529649.5043398599</v>
       </c>
       <c r="AE4" t="n">
-        <v>642235.3472340452</v>
+        <v>724689.8183248048</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.285040306410884e-06</v>
+        <v>3.29426129480799e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.30078125</v>
       </c>
       <c r="AH4" t="n">
-        <v>580941.3070769982</v>
+        <v>655526.4391724328</v>
       </c>
     </row>
     <row r="5">
@@ -3045,28 +3045,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>418.7088466502145</v>
+        <v>470.5943942776871</v>
       </c>
       <c r="AB5" t="n">
-        <v>572.8959161174411</v>
+        <v>643.8880114101588</v>
       </c>
       <c r="AC5" t="n">
-        <v>518.21953394766</v>
+        <v>582.4362433036724</v>
       </c>
       <c r="AD5" t="n">
-        <v>418708.8466502145</v>
+        <v>470594.3942776871</v>
       </c>
       <c r="AE5" t="n">
-        <v>572895.916117441</v>
+        <v>643888.0114101588</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.429851024529838e-06</v>
+        <v>3.503029753917543e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.50651041666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>518219.5339476601</v>
+        <v>582436.2433036724</v>
       </c>
     </row>
     <row r="6">
@@ -3151,28 +3151,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>389.2799141139984</v>
+        <v>440.9948695408788</v>
       </c>
       <c r="AB6" t="n">
-        <v>532.6299523085171</v>
+        <v>603.3886358263878</v>
       </c>
       <c r="AC6" t="n">
-        <v>481.7964972110246</v>
+        <v>545.8020712843858</v>
       </c>
       <c r="AD6" t="n">
-        <v>389279.9141139984</v>
+        <v>440994.8695408788</v>
       </c>
       <c r="AE6" t="n">
-        <v>532629.9523085171</v>
+        <v>603388.6358263878</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.526764967410222e-06</v>
+        <v>3.642747136609816e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>13</v>
+        <v>12.02799479166667</v>
       </c>
       <c r="AH6" t="n">
-        <v>481796.4972110246</v>
+        <v>545802.0712843857</v>
       </c>
     </row>
     <row r="7">
@@ -3257,28 +3257,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>360.8936419288563</v>
+        <v>412.6938487017572</v>
       </c>
       <c r="AB7" t="n">
-        <v>493.7906023908607</v>
+        <v>564.6659305613809</v>
       </c>
       <c r="AC7" t="n">
-        <v>446.6639203381393</v>
+        <v>510.7750066622128</v>
       </c>
       <c r="AD7" t="n">
-        <v>360893.6419288563</v>
+        <v>412693.8487017573</v>
       </c>
       <c r="AE7" t="n">
-        <v>493790.6023908607</v>
+        <v>564665.9305613809</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.582131025337068e-06</v>
+        <v>3.722566412078523e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>12</v>
+        <v>11.77083333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>446663.9203381393</v>
+        <v>510775.0066622128</v>
       </c>
     </row>
     <row r="8">
@@ -3363,28 +3363,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>356.1723978938434</v>
+        <v>407.9726046667444</v>
       </c>
       <c r="AB8" t="n">
-        <v>487.3307880155695</v>
+        <v>558.2061161860896</v>
       </c>
       <c r="AC8" t="n">
-        <v>440.8206215804195</v>
+        <v>504.931707904493</v>
       </c>
       <c r="AD8" t="n">
-        <v>356172.3978938434</v>
+        <v>407972.6046667444</v>
       </c>
       <c r="AE8" t="n">
-        <v>487330.7880155694</v>
+        <v>558206.1161860896</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.597816518982448e-06</v>
+        <v>3.745179630086521e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>12</v>
+        <v>11.69921875</v>
       </c>
       <c r="AH8" t="n">
-        <v>440820.6215804195</v>
+        <v>504931.707904493</v>
       </c>
     </row>
   </sheetData>
@@ -3660,28 +3660,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>836.627032955515</v>
+        <v>920.7160171595247</v>
       </c>
       <c r="AB2" t="n">
-        <v>1144.710015869497</v>
+        <v>1259.764273801585</v>
       </c>
       <c r="AC2" t="n">
-        <v>1035.460498565509</v>
+        <v>1139.534139600224</v>
       </c>
       <c r="AD2" t="n">
-        <v>836627.032955515</v>
+        <v>920716.0171595246</v>
       </c>
       <c r="AE2" t="n">
-        <v>1144710.015869497</v>
+        <v>1259764.273801585</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.56961673764768e-06</v>
+        <v>2.297859856578136e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>21</v>
+        <v>20.03255208333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>1035460.498565509</v>
+        <v>1139534.139600224</v>
       </c>
     </row>
     <row r="3">
@@ -3766,28 +3766,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>462.7980692645947</v>
+        <v>529.9667759954757</v>
       </c>
       <c r="AB3" t="n">
-        <v>633.220735577661</v>
+        <v>725.1239234010559</v>
       </c>
       <c r="AC3" t="n">
-        <v>572.7870373050123</v>
+        <v>655.9191138694766</v>
       </c>
       <c r="AD3" t="n">
-        <v>462798.0692645947</v>
+        <v>529966.7759954757</v>
       </c>
       <c r="AE3" t="n">
-        <v>633220.735577661</v>
+        <v>725123.9234010559</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.246683584666955e-06</v>
+        <v>3.28906025006855e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.994140625</v>
       </c>
       <c r="AH3" t="n">
-        <v>572787.0373050123</v>
+        <v>655919.1138694766</v>
       </c>
     </row>
     <row r="4">
@@ -3872,28 +3872,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>386.9103294164776</v>
+        <v>445.7469534469271</v>
       </c>
       <c r="AB4" t="n">
-        <v>529.3877819866701</v>
+        <v>609.8906466737889</v>
       </c>
       <c r="AC4" t="n">
-        <v>478.8637550742802</v>
+        <v>551.6835393421404</v>
       </c>
       <c r="AD4" t="n">
-        <v>386910.3294164776</v>
+        <v>445746.9534469271</v>
       </c>
       <c r="AE4" t="n">
-        <v>529387.7819866701</v>
+        <v>609890.6466737889</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.497710223098209e-06</v>
+        <v>3.656553805372628e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.587890625</v>
       </c>
       <c r="AH4" t="n">
-        <v>478863.7550742801</v>
+        <v>551683.5393421404</v>
       </c>
     </row>
     <row r="5">
@@ -3978,28 +3978,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>341.6845557889659</v>
+        <v>400.4358389648439</v>
       </c>
       <c r="AB5" t="n">
-        <v>467.5078832891919</v>
+        <v>547.8939808541131</v>
       </c>
       <c r="AC5" t="n">
-        <v>422.8895870595059</v>
+        <v>495.6037482954274</v>
       </c>
       <c r="AD5" t="n">
-        <v>341684.5557889659</v>
+        <v>400435.8389648439</v>
       </c>
       <c r="AE5" t="n">
-        <v>467507.8832891919</v>
+        <v>547893.9808541131</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.631288461247662e-06</v>
+        <v>3.852107320949982e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.94986979166667</v>
       </c>
       <c r="AH5" t="n">
-        <v>422889.5870595059</v>
+        <v>495603.7482954274</v>
       </c>
     </row>
     <row r="6">
@@ -4084,28 +4084,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>330.973508845964</v>
+        <v>381.4780501759823</v>
       </c>
       <c r="AB6" t="n">
-        <v>452.8525563237358</v>
+        <v>521.9550978745784</v>
       </c>
       <c r="AC6" t="n">
-        <v>409.6329439307522</v>
+        <v>472.1404359020087</v>
       </c>
       <c r="AD6" t="n">
-        <v>330973.508845964</v>
+        <v>381478.0501759823</v>
       </c>
       <c r="AE6" t="n">
-        <v>452852.5563237357</v>
+        <v>521955.0978745784</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.667991086335725e-06</v>
+        <v>3.905838583364583e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>11.78385416666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>409632.9439307522</v>
+        <v>472140.4359020087</v>
       </c>
     </row>
   </sheetData>
@@ -4381,28 +4381,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>337.4941886513331</v>
+        <v>391.8652097910121</v>
       </c>
       <c r="AB2" t="n">
-        <v>461.7744381055318</v>
+        <v>536.1672679090028</v>
       </c>
       <c r="AC2" t="n">
-        <v>417.7033338372335</v>
+        <v>484.9962163752537</v>
       </c>
       <c r="AD2" t="n">
-        <v>337494.1886513331</v>
+        <v>391865.2097910121</v>
       </c>
       <c r="AE2" t="n">
-        <v>461774.4381055319</v>
+        <v>536167.2679090028</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.533376646255372e-06</v>
+        <v>3.919446373821493e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.84765625</v>
       </c>
       <c r="AH2" t="n">
-        <v>417703.3338372335</v>
+        <v>484996.2163752536</v>
       </c>
     </row>
     <row r="3">
@@ -4487,28 +4487,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>282.420948809892</v>
+        <v>336.7066290949993</v>
       </c>
       <c r="AB3" t="n">
-        <v>386.4208016946071</v>
+        <v>460.6968643758804</v>
       </c>
       <c r="AC3" t="n">
-        <v>349.5413427258745</v>
+        <v>416.7286022319557</v>
       </c>
       <c r="AD3" t="n">
-        <v>282420.948809892</v>
+        <v>336706.6290949993</v>
       </c>
       <c r="AE3" t="n">
-        <v>386420.8016946071</v>
+        <v>460696.8643758803</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.797427219867457e-06</v>
+        <v>4.327965203731416e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.54231770833333</v>
       </c>
       <c r="AH3" t="n">
-        <v>349541.3427258744</v>
+        <v>416728.6022319557</v>
       </c>
     </row>
   </sheetData>
@@ -4784,28 +4784,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>475.1641591182823</v>
+        <v>539.335883212239</v>
       </c>
       <c r="AB2" t="n">
-        <v>650.1405652688576</v>
+        <v>737.9431492308702</v>
       </c>
       <c r="AC2" t="n">
-        <v>588.0920621976114</v>
+        <v>667.51489077799</v>
       </c>
       <c r="AD2" t="n">
-        <v>475164.1591182823</v>
+        <v>539335.883212239</v>
       </c>
       <c r="AE2" t="n">
-        <v>650140.5652688576</v>
+        <v>737943.1492308702</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.140266763463223e-06</v>
+        <v>3.234572250473348e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.68033854166667</v>
       </c>
       <c r="AH2" t="n">
-        <v>588092.0621976114</v>
+        <v>667514.89077799</v>
       </c>
     </row>
     <row r="3">
@@ -4890,28 +4890,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>315.1261932231687</v>
+        <v>363.1697349476157</v>
       </c>
       <c r="AB3" t="n">
-        <v>431.1695599544042</v>
+        <v>496.9048532732644</v>
       </c>
       <c r="AC3" t="n">
-        <v>390.0193423026332</v>
+        <v>449.480951487205</v>
       </c>
       <c r="AD3" t="n">
-        <v>315126.1932231687</v>
+        <v>363169.7349476157</v>
       </c>
       <c r="AE3" t="n">
-        <v>431169.5599544042</v>
+        <v>496904.8532732644</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.705801169359541e-06</v>
+        <v>4.089260987049429e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.40559895833333</v>
       </c>
       <c r="AH3" t="n">
-        <v>390019.3423026332</v>
+        <v>449480.951487205</v>
       </c>
     </row>
     <row r="4">
@@ -4996,28 +4996,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>301.6666907417026</v>
+        <v>349.7102324661495</v>
       </c>
       <c r="AB4" t="n">
-        <v>412.7536748679205</v>
+        <v>478.4889681867806</v>
       </c>
       <c r="AC4" t="n">
-        <v>373.3610434419465</v>
+        <v>432.8226526265182</v>
       </c>
       <c r="AD4" t="n">
-        <v>301666.6907417026</v>
+        <v>349710.2324661495</v>
       </c>
       <c r="AE4" t="n">
-        <v>412753.6748679205</v>
+        <v>478488.9681867806</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.775603683997975e-06</v>
+        <v>4.1947531064044e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.09309895833333</v>
       </c>
       <c r="AH4" t="n">
-        <v>373361.0434419465</v>
+        <v>432822.6526265182</v>
       </c>
     </row>
   </sheetData>
@@ -5293,28 +5293,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>277.5542791241677</v>
+        <v>322.9072384555658</v>
       </c>
       <c r="AB2" t="n">
-        <v>379.7620095282856</v>
+        <v>441.8159293168583</v>
       </c>
       <c r="AC2" t="n">
-        <v>343.5180563382332</v>
+        <v>399.649637115408</v>
       </c>
       <c r="AD2" t="n">
-        <v>277554.2791241677</v>
+        <v>322907.2384555658</v>
       </c>
       <c r="AE2" t="n">
-        <v>379762.0095282856</v>
+        <v>441815.9293168584</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.763207142947833e-06</v>
+        <v>4.367215704257748e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.18684895833333</v>
       </c>
       <c r="AH2" t="n">
-        <v>343518.0563382332</v>
+        <v>399649.637115408</v>
       </c>
     </row>
     <row r="3">
@@ -5399,28 +5399,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>277.4478019813341</v>
+        <v>322.800761312732</v>
       </c>
       <c r="AB3" t="n">
-        <v>379.6163228040205</v>
+        <v>441.6702425925933</v>
       </c>
       <c r="AC3" t="n">
-        <v>343.3862737504593</v>
+        <v>399.5178545276341</v>
       </c>
       <c r="AD3" t="n">
-        <v>277447.8019813341</v>
+        <v>322800.761312732</v>
       </c>
       <c r="AE3" t="n">
-        <v>379616.3228040205</v>
+        <v>441670.2425925933</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.775072165922493e-06</v>
+        <v>4.385968230574338e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.13151041666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>343386.2737504593</v>
+        <v>399517.8545276341</v>
       </c>
     </row>
   </sheetData>
@@ -5696,28 +5696,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>904.2723921920197</v>
+        <v>997.4030605142916</v>
       </c>
       <c r="AB2" t="n">
-        <v>1237.265380679511</v>
+        <v>1364.690869713156</v>
       </c>
       <c r="AC2" t="n">
-        <v>1119.182509260326</v>
+        <v>1234.446688463397</v>
       </c>
       <c r="AD2" t="n">
-        <v>904272.3921920196</v>
+        <v>997403.0605142916</v>
       </c>
       <c r="AE2" t="n">
-        <v>1237265.380679511</v>
+        <v>1364690.869713156</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.49310869605412e-06</v>
+        <v>2.176782695827324e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>21</v>
+        <v>20.869140625</v>
       </c>
       <c r="AH2" t="n">
-        <v>1119182.509260325</v>
+        <v>1234446.688463397</v>
       </c>
     </row>
     <row r="3">
@@ -5802,28 +5802,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>495.6180092220672</v>
+        <v>554.8520364431288</v>
       </c>
       <c r="AB3" t="n">
-        <v>678.1264253410372</v>
+        <v>759.1730346057429</v>
       </c>
       <c r="AC3" t="n">
-        <v>613.4069910629033</v>
+        <v>686.7186256890161</v>
       </c>
       <c r="AD3" t="n">
-        <v>495618.0092220672</v>
+        <v>554852.0364431288</v>
       </c>
       <c r="AE3" t="n">
-        <v>678126.4253410372</v>
+        <v>759173.0346057429</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.18304571003951e-06</v>
+        <v>3.182632408727083e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.27408854166667</v>
       </c>
       <c r="AH3" t="n">
-        <v>613406.9910629033</v>
+        <v>686718.6256890161</v>
       </c>
     </row>
     <row r="4">
@@ -5908,28 +5908,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>404.9999503398041</v>
+        <v>464.2338880523147</v>
       </c>
       <c r="AB4" t="n">
-        <v>554.1387993917165</v>
+        <v>635.1852861868738</v>
       </c>
       <c r="AC4" t="n">
-        <v>501.25257011646</v>
+        <v>574.5640939613461</v>
       </c>
       <c r="AD4" t="n">
-        <v>404999.9503398041</v>
+        <v>464233.8880523148</v>
       </c>
       <c r="AE4" t="n">
-        <v>554138.7993917165</v>
+        <v>635185.2861868738</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.442442117905826e-06</v>
+        <v>3.560802875147497e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.75716145833333</v>
       </c>
       <c r="AH4" t="n">
-        <v>501252.57011646</v>
+        <v>574564.0939613461</v>
       </c>
     </row>
     <row r="5">
@@ -6014,28 +6014,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>367.7694687601235</v>
+        <v>418.5293133287449</v>
       </c>
       <c r="AB5" t="n">
-        <v>503.1984120014716</v>
+        <v>572.6502707065551</v>
       </c>
       <c r="AC5" t="n">
-        <v>455.1738618034573</v>
+        <v>517.9973325900237</v>
       </c>
       <c r="AD5" t="n">
-        <v>367769.4687601235</v>
+        <v>418529.3133287449</v>
       </c>
       <c r="AE5" t="n">
-        <v>503198.4120014716</v>
+        <v>572650.2707065551</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.578840598056934e-06</v>
+        <v>3.759656349187753e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.08333333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>455173.8618034573</v>
+        <v>517997.3325900236</v>
       </c>
     </row>
     <row r="6">
@@ -6120,28 +6120,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>337.0543959455764</v>
+        <v>387.8994918602185</v>
       </c>
       <c r="AB6" t="n">
-        <v>461.1726943232308</v>
+        <v>530.7411976809635</v>
       </c>
       <c r="AC6" t="n">
-        <v>417.1590196369625</v>
+        <v>480.088002674241</v>
       </c>
       <c r="AD6" t="n">
-        <v>337054.3959455764</v>
+        <v>387899.4918602185</v>
       </c>
       <c r="AE6" t="n">
-        <v>461172.6943232308</v>
+        <v>530741.1976809636</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.649863525967195e-06</v>
+        <v>3.863199701986258e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>11.7578125</v>
       </c>
       <c r="AH6" t="n">
-        <v>417159.0196369624</v>
+        <v>480088.002674241</v>
       </c>
     </row>
     <row r="7">
@@ -6226,28 +6226,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>336.9712867033589</v>
+        <v>387.8163826180009</v>
       </c>
       <c r="AB7" t="n">
-        <v>461.0589805915077</v>
+        <v>530.6274839492405</v>
       </c>
       <c r="AC7" t="n">
-        <v>417.0561585841968</v>
+        <v>479.9851416214754</v>
       </c>
       <c r="AD7" t="n">
-        <v>336971.2867033589</v>
+        <v>387816.382618001</v>
       </c>
       <c r="AE7" t="n">
-        <v>461058.9805915077</v>
+        <v>530627.4839492405</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.652543636454374e-06</v>
+        <v>3.867106998318277e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>12</v>
+        <v>11.74479166666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>417056.1585841968</v>
+        <v>479985.1416214754</v>
       </c>
     </row>
   </sheetData>
@@ -6523,28 +6523,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>270.1684319741695</v>
+        <v>322.2159658414761</v>
       </c>
       <c r="AB2" t="n">
-        <v>369.6563676170784</v>
+        <v>440.8700996294655</v>
       </c>
       <c r="AC2" t="n">
-        <v>334.3768827076741</v>
+        <v>398.7940760858996</v>
       </c>
       <c r="AD2" t="n">
-        <v>270168.4319741695</v>
+        <v>322215.9658414761</v>
       </c>
       <c r="AE2" t="n">
-        <v>369656.3676170784</v>
+        <v>440870.0996294655</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.725521517707077e-06</v>
+        <v>4.366925690042509e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.681640625</v>
       </c>
       <c r="AH2" t="n">
-        <v>334376.8827076741</v>
+        <v>398794.0760858996</v>
       </c>
     </row>
     <row r="3">
@@ -6629,28 +6629,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>272.1312503036934</v>
+        <v>324.178784171</v>
       </c>
       <c r="AB3" t="n">
-        <v>372.3419822489662</v>
+        <v>443.5557142613534</v>
       </c>
       <c r="AC3" t="n">
-        <v>336.8061860483783</v>
+        <v>401.2233794266039</v>
       </c>
       <c r="AD3" t="n">
-        <v>272131.2503036934</v>
+        <v>324178.7841709999</v>
       </c>
       <c r="AE3" t="n">
-        <v>372341.9822489662</v>
+        <v>443555.7142613534</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.725979723316745e-06</v>
+        <v>4.367659843060631e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.67838541666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>336806.1860483783</v>
+        <v>401223.3794266039</v>
       </c>
     </row>
   </sheetData>
@@ -6926,28 +6926,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>633.6282269881249</v>
+        <v>707.7271423858812</v>
       </c>
       <c r="AB2" t="n">
-        <v>866.9580938696546</v>
+        <v>968.3434989302966</v>
       </c>
       <c r="AC2" t="n">
-        <v>784.216830174061</v>
+        <v>875.9261544710249</v>
       </c>
       <c r="AD2" t="n">
-        <v>633628.2269881249</v>
+        <v>707727.1423858812</v>
       </c>
       <c r="AE2" t="n">
-        <v>866958.0938696546</v>
+        <v>968343.4989302966</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.831045832036549e-06</v>
+        <v>2.718815947331745e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.69205729166667</v>
       </c>
       <c r="AH2" t="n">
-        <v>784216.830174061</v>
+        <v>875926.1544710249</v>
       </c>
     </row>
     <row r="3">
@@ -7032,28 +7032,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>392.9361289251274</v>
+        <v>442.335495365516</v>
       </c>
       <c r="AB3" t="n">
-        <v>537.6325467139172</v>
+        <v>605.2229392238936</v>
       </c>
       <c r="AC3" t="n">
-        <v>486.3216510275588</v>
+        <v>547.4613113400945</v>
       </c>
       <c r="AD3" t="n">
-        <v>392936.1289251274</v>
+        <v>442335.495365516</v>
       </c>
       <c r="AE3" t="n">
-        <v>537632.5467139173</v>
+        <v>605222.9392238936</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.456387789021206e-06</v>
+        <v>3.647350698040043e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.18684895833333</v>
       </c>
       <c r="AH3" t="n">
-        <v>486321.6510275588</v>
+        <v>547461.3113400945</v>
       </c>
     </row>
     <row r="4">
@@ -7138,28 +7138,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>327.2088497048355</v>
+        <v>376.5228752906523</v>
       </c>
       <c r="AB4" t="n">
-        <v>447.7015836018039</v>
+        <v>515.1752089895824</v>
       </c>
       <c r="AC4" t="n">
-        <v>404.973572815966</v>
+        <v>466.0076100965629</v>
       </c>
       <c r="AD4" t="n">
-        <v>327208.8497048354</v>
+        <v>376522.8752906523</v>
       </c>
       <c r="AE4" t="n">
-        <v>447701.5836018039</v>
+        <v>515175.2089895824</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.692433479977222e-06</v>
+        <v>3.997841536467809e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.03125</v>
       </c>
       <c r="AH4" t="n">
-        <v>404973.572815966</v>
+        <v>466007.6100965629</v>
       </c>
     </row>
     <row r="5">
@@ -7244,28 +7244,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>311.859118624034</v>
+        <v>369.3209266687011</v>
       </c>
       <c r="AB5" t="n">
-        <v>426.6994043547093</v>
+        <v>505.3211851574798</v>
       </c>
       <c r="AC5" t="n">
-        <v>385.9758120794704</v>
+        <v>457.0940404687869</v>
       </c>
       <c r="AD5" t="n">
-        <v>311859.118624034</v>
+        <v>369320.9266687011</v>
       </c>
       <c r="AE5" t="n">
-        <v>426699.4043547093</v>
+        <v>505321.1851574798</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.721292354503885e-06</v>
+        <v>4.040692439985538e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.904296875</v>
       </c>
       <c r="AH5" t="n">
-        <v>385975.8120794704</v>
+        <v>457094.0404687869</v>
       </c>
     </row>
   </sheetData>
@@ -7541,28 +7541,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>760.5780672449237</v>
+        <v>843.9925362607985</v>
       </c>
       <c r="AB2" t="n">
-        <v>1040.656465940686</v>
+        <v>1154.787822434859</v>
       </c>
       <c r="AC2" t="n">
-        <v>941.3376734018293</v>
+        <v>1044.576493416563</v>
       </c>
       <c r="AD2" t="n">
-        <v>760578.0672449237</v>
+        <v>843992.5362607985</v>
       </c>
       <c r="AE2" t="n">
-        <v>1040656.465940686</v>
+        <v>1154787.822434858</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.656970523700872e-06</v>
+        <v>2.436479844736017e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>19.15364583333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>941337.6734018293</v>
+        <v>1044576.493416563</v>
       </c>
     </row>
     <row r="3">
@@ -7647,28 +7647,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>438.9744843623602</v>
+        <v>497.4840272138871</v>
       </c>
       <c r="AB3" t="n">
-        <v>600.6242556920354</v>
+        <v>680.6795934803489</v>
       </c>
       <c r="AC3" t="n">
-        <v>543.3015197102242</v>
+        <v>615.7164884183932</v>
       </c>
       <c r="AD3" t="n">
-        <v>438974.4843623602</v>
+        <v>497484.0272138871</v>
       </c>
       <c r="AE3" t="n">
-        <v>600624.2556920354</v>
+        <v>680679.5934803489</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.31453255805645e-06</v>
+        <v>3.403386992723525e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.71419270833333</v>
       </c>
       <c r="AH3" t="n">
-        <v>543301.5197102241</v>
+        <v>615716.4884183932</v>
       </c>
     </row>
     <row r="4">
@@ -7753,28 +7753,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>366.4768682910289</v>
+        <v>416.5426536748886</v>
       </c>
       <c r="AB4" t="n">
-        <v>501.4298190141484</v>
+        <v>569.9320353229108</v>
       </c>
       <c r="AC4" t="n">
-        <v>453.5740608486084</v>
+        <v>515.5385217763268</v>
       </c>
       <c r="AD4" t="n">
-        <v>366476.8682910289</v>
+        <v>416542.6536748886</v>
       </c>
       <c r="AE4" t="n">
-        <v>501429.8190141484</v>
+        <v>569932.0353229108</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.562288360146829e-06</v>
+        <v>3.767697648571131e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.38606770833333</v>
       </c>
       <c r="AH4" t="n">
-        <v>453574.0608486084</v>
+        <v>515538.5217763268</v>
       </c>
     </row>
     <row r="5">
@@ -7859,28 +7859,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>326.9292143245915</v>
+        <v>377.0802510544717</v>
       </c>
       <c r="AB5" t="n">
-        <v>447.3189741379119</v>
+        <v>515.9378350993236</v>
       </c>
       <c r="AC5" t="n">
-        <v>404.6274790623121</v>
+        <v>466.6974522407428</v>
       </c>
       <c r="AD5" t="n">
-        <v>326929.2143245915</v>
+        <v>377080.2510544717</v>
       </c>
       <c r="AE5" t="n">
-        <v>447318.9741379119</v>
+        <v>515937.8350993235</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.675782163229554e-06</v>
+        <v>3.934583757743352e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.86197916666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>404627.4790623121</v>
+        <v>466697.4522407429</v>
       </c>
     </row>
     <row r="6">
@@ -7965,28 +7965,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>324.7876099134974</v>
+        <v>374.9386466433776</v>
       </c>
       <c r="AB6" t="n">
-        <v>444.3887365017345</v>
+        <v>513.0075974631461</v>
       </c>
       <c r="AC6" t="n">
-        <v>401.9768991935171</v>
+        <v>464.0468723719479</v>
       </c>
       <c r="AD6" t="n">
-        <v>324787.6099134974</v>
+        <v>374938.6466433776</v>
       </c>
       <c r="AE6" t="n">
-        <v>444388.7365017345</v>
+        <v>513007.5974631461</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.686995038963672e-06</v>
+        <v>3.95107164653614e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>11.81315104166667</v>
       </c>
       <c r="AH6" t="n">
-        <v>401976.8991935171</v>
+        <v>464046.8723719479</v>
       </c>
     </row>
   </sheetData>
@@ -8262,28 +8262,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1079.937054970279</v>
+        <v>1182.835656615657</v>
       </c>
       <c r="AB2" t="n">
-        <v>1477.617522070695</v>
+        <v>1618.407928407819</v>
       </c>
       <c r="AC2" t="n">
-        <v>1336.595779613484</v>
+        <v>1463.94934717037</v>
       </c>
       <c r="AD2" t="n">
-        <v>1079937.054970279</v>
+        <v>1182835.656615657</v>
       </c>
       <c r="AE2" t="n">
-        <v>1477617.522070695</v>
+        <v>1618407.928407819</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.34703085312558e-06</v>
+        <v>1.948847203932186e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>23</v>
+        <v>22.744140625</v>
       </c>
       <c r="AH2" t="n">
-        <v>1336595.779613484</v>
+        <v>1463949.34717037</v>
       </c>
     </row>
     <row r="3">
@@ -8368,28 +8368,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>546.2481194472743</v>
+        <v>614.8187402593361</v>
       </c>
       <c r="AB3" t="n">
-        <v>747.400775793986</v>
+        <v>841.2221243113368</v>
       </c>
       <c r="AC3" t="n">
-        <v>676.0698947357843</v>
+        <v>760.9370654297288</v>
       </c>
       <c r="AD3" t="n">
-        <v>546248.1194472744</v>
+        <v>614818.7402593361</v>
       </c>
       <c r="AE3" t="n">
-        <v>747400.7757939859</v>
+        <v>841222.1243113368</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.061532232076841e-06</v>
+        <v>2.982568154973417e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.86002604166667</v>
       </c>
       <c r="AH3" t="n">
-        <v>676069.8947357843</v>
+        <v>760937.0654297288</v>
       </c>
     </row>
     <row r="4">
@@ -8474,28 +8474,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>451.6469981089998</v>
+        <v>503.1390588675259</v>
       </c>
       <c r="AB4" t="n">
-        <v>617.9633480720366</v>
+        <v>688.4170572712463</v>
       </c>
       <c r="AC4" t="n">
-        <v>558.985793449047</v>
+        <v>622.7154995246862</v>
       </c>
       <c r="AD4" t="n">
-        <v>451646.9981089997</v>
+        <v>503139.0588675259</v>
       </c>
       <c r="AE4" t="n">
-        <v>617963.3480720366</v>
+        <v>688417.0572712463</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.33210539652427e-06</v>
+        <v>3.374025970337425e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.134765625</v>
       </c>
       <c r="AH4" t="n">
-        <v>558985.793449047</v>
+        <v>622715.4995246861</v>
       </c>
     </row>
     <row r="5">
@@ -8580,28 +8580,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>400.1304765170221</v>
+        <v>451.5371964209766</v>
       </c>
       <c r="AB5" t="n">
-        <v>547.4761704813628</v>
+        <v>617.8131125583748</v>
       </c>
       <c r="AC5" t="n">
-        <v>495.225813158252</v>
+        <v>558.8498962019521</v>
       </c>
       <c r="AD5" t="n">
-        <v>400130.4765170221</v>
+        <v>451537.1964209765</v>
       </c>
       <c r="AE5" t="n">
-        <v>547476.1704813628</v>
+        <v>617813.1125583748</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.479297197983671e-06</v>
+        <v>3.586979021895444e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.35677083333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>495225.813158252</v>
+        <v>558849.8962019521</v>
       </c>
     </row>
     <row r="6">
@@ -8686,28 +8686,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>364.764952540973</v>
+        <v>424.6682372901341</v>
       </c>
       <c r="AB6" t="n">
-        <v>499.0875003605293</v>
+        <v>581.0498173007388</v>
       </c>
       <c r="AC6" t="n">
-        <v>451.4552897998258</v>
+        <v>525.5952382460961</v>
       </c>
       <c r="AD6" t="n">
-        <v>364764.952540973</v>
+        <v>424668.2372901341</v>
       </c>
       <c r="AE6" t="n">
-        <v>499087.5003605293</v>
+        <v>581049.8173007388</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.569927444022931e-06</v>
+        <v>3.718100370137371e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>11.92057291666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>451455.2897998258</v>
+        <v>525595.2382460961</v>
       </c>
     </row>
     <row r="7">
@@ -8792,28 +8792,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>350.1209011547665</v>
+        <v>401.6128724047416</v>
       </c>
       <c r="AB7" t="n">
-        <v>479.0508632039703</v>
+        <v>549.5044499336316</v>
       </c>
       <c r="AC7" t="n">
-        <v>433.3309211718919</v>
+        <v>497.0605164663043</v>
       </c>
       <c r="AD7" t="n">
-        <v>350120.9011547665</v>
+        <v>401612.8724047416</v>
       </c>
       <c r="AE7" t="n">
-        <v>479050.8632039702</v>
+        <v>549504.4499336316</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.610960452613915e-06</v>
+        <v>3.777465798832574e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>12</v>
+        <v>11.73502604166667</v>
       </c>
       <c r="AH7" t="n">
-        <v>433330.9211718919</v>
+        <v>497060.5164663043</v>
       </c>
     </row>
     <row r="8">
@@ -8898,28 +8898,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>349.7816423406445</v>
+        <v>401.2736135906196</v>
       </c>
       <c r="AB8" t="n">
-        <v>478.586674327446</v>
+        <v>549.0402610571073</v>
       </c>
       <c r="AC8" t="n">
-        <v>432.9110338302499</v>
+        <v>496.6406291246624</v>
       </c>
       <c r="AD8" t="n">
-        <v>349781.6423406445</v>
+        <v>401273.6135906196</v>
       </c>
       <c r="AE8" t="n">
-        <v>478586.674327446</v>
+        <v>549040.2610571072</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.617454208560653e-06</v>
+        <v>3.78686078640131e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>12</v>
+        <v>11.70572916666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>432911.0338302499</v>
+        <v>496640.6291246624</v>
       </c>
     </row>
   </sheetData>
@@ -9195,28 +9195,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>527.8791498064759</v>
+        <v>592.5603723260467</v>
       </c>
       <c r="AB2" t="n">
-        <v>722.2675411496989</v>
+        <v>810.7672433351211</v>
       </c>
       <c r="AC2" t="n">
-        <v>653.3353407312317</v>
+        <v>733.3887555501892</v>
       </c>
       <c r="AD2" t="n">
-        <v>527879.1498064758</v>
+        <v>592560.3723260467</v>
       </c>
       <c r="AE2" t="n">
-        <v>722267.5411496989</v>
+        <v>810767.2433351211</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.030297424379092e-06</v>
+        <v>3.048866404104588e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.32486979166667</v>
       </c>
       <c r="AH2" t="n">
-        <v>653335.3407312316</v>
+        <v>733388.7555501892</v>
       </c>
     </row>
     <row r="3">
@@ -9301,28 +9301,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>338.4098542131716</v>
+        <v>394.9951779909924</v>
       </c>
       <c r="AB3" t="n">
-        <v>463.0272921235527</v>
+        <v>540.4498284846675</v>
       </c>
       <c r="AC3" t="n">
-        <v>418.8366172261662</v>
+        <v>488.8700553801883</v>
       </c>
       <c r="AD3" t="n">
-        <v>338409.8542131716</v>
+        <v>394995.1779909924</v>
       </c>
       <c r="AE3" t="n">
-        <v>463027.2921235528</v>
+        <v>540449.8284846675</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.618382170540951e-06</v>
+        <v>3.93198421916442e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.65625</v>
       </c>
       <c r="AH3" t="n">
-        <v>418836.6172261662</v>
+        <v>488870.0553801883</v>
       </c>
     </row>
     <row r="4">
@@ -9407,28 +9407,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>308.0203893055647</v>
+        <v>356.5099933587378</v>
       </c>
       <c r="AB4" t="n">
-        <v>421.4470855483943</v>
+        <v>487.7927010242985</v>
       </c>
       <c r="AC4" t="n">
-        <v>381.2247672083544</v>
+        <v>441.2384502598944</v>
       </c>
       <c r="AD4" t="n">
-        <v>308020.3893055647</v>
+        <v>356509.9933587378</v>
       </c>
       <c r="AE4" t="n">
-        <v>421447.0855483944</v>
+        <v>487792.7010242986</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.757563584668939e-06</v>
+        <v>4.140990807320028e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.01822916666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>381224.7672083544</v>
+        <v>441238.4502598944</v>
       </c>
     </row>
     <row r="5">
@@ -9513,28 +9513,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>309.3011200516281</v>
+        <v>357.7907241048011</v>
       </c>
       <c r="AB5" t="n">
-        <v>423.1994378570111</v>
+        <v>489.5450533329153</v>
       </c>
       <c r="AC5" t="n">
-        <v>382.8098774720787</v>
+        <v>442.8235605236187</v>
       </c>
       <c r="AD5" t="n">
-        <v>309301.120051628</v>
+        <v>357790.7241048011</v>
       </c>
       <c r="AE5" t="n">
-        <v>423199.4378570111</v>
+        <v>489545.0533329153</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.757359954216667e-06</v>
+        <v>4.140685018602902e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.021484375</v>
       </c>
       <c r="AH5" t="n">
-        <v>382809.8774720787</v>
+        <v>442823.5605236187</v>
       </c>
     </row>
   </sheetData>
@@ -9810,28 +9810,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>385.4783520495621</v>
+        <v>440.4004446481046</v>
       </c>
       <c r="AB2" t="n">
-        <v>527.4284873788737</v>
+        <v>602.5753174639186</v>
       </c>
       <c r="AC2" t="n">
-        <v>477.0914527939644</v>
+        <v>545.0663748849313</v>
       </c>
       <c r="AD2" t="n">
-        <v>385478.3520495621</v>
+        <v>440400.4446481046</v>
       </c>
       <c r="AE2" t="n">
-        <v>527428.4873788736</v>
+        <v>602575.3174639186</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.386510706958646e-06</v>
+        <v>3.660303037969255e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.46614583333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>477091.4527939644</v>
+        <v>545066.3748849313</v>
       </c>
     </row>
     <row r="3">
@@ -9916,28 +9916,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>288.4016195309687</v>
+        <v>335.4655201374308</v>
       </c>
       <c r="AB3" t="n">
-        <v>394.6038192237549</v>
+        <v>458.9987243462722</v>
       </c>
       <c r="AC3" t="n">
-        <v>356.9433845469777</v>
+        <v>415.1925303034189</v>
       </c>
       <c r="AD3" t="n">
-        <v>288401.6195309687</v>
+        <v>335465.5201374308</v>
       </c>
       <c r="AE3" t="n">
-        <v>394603.8192237549</v>
+        <v>458998.7243462722</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.793666275530962e-06</v>
+        <v>4.284776567556135e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.35677083333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>356943.3845469777</v>
+        <v>415192.5303034189</v>
       </c>
     </row>
     <row r="4">
@@ -10022,28 +10022,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>290.0697236081571</v>
+        <v>337.133624214619</v>
       </c>
       <c r="AB4" t="n">
-        <v>396.8861928137221</v>
+        <v>461.2810979362394</v>
       </c>
       <c r="AC4" t="n">
-        <v>359.0079316048498</v>
+        <v>417.2570773612911</v>
       </c>
       <c r="AD4" t="n">
-        <v>290069.7236081571</v>
+        <v>337133.624214619</v>
       </c>
       <c r="AE4" t="n">
-        <v>396886.1928137221</v>
+        <v>461281.0979362394</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.793029929239887e-06</v>
+        <v>4.283800573501037e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.36002604166667</v>
       </c>
       <c r="AH4" t="n">
-        <v>359007.9316048498</v>
+        <v>417257.077361291</v>
       </c>
     </row>
   </sheetData>
@@ -17652,28 +17652,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>300.4270298561877</v>
+        <v>353.9342582862354</v>
       </c>
       <c r="AB2" t="n">
-        <v>411.0575161543806</v>
+        <v>484.2684666646892</v>
       </c>
       <c r="AC2" t="n">
-        <v>371.8267637354531</v>
+        <v>438.0505638812724</v>
       </c>
       <c r="AD2" t="n">
-        <v>300427.0298561878</v>
+        <v>353934.2582862354</v>
       </c>
       <c r="AE2" t="n">
-        <v>411057.5161543806</v>
+        <v>484268.4666646892</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.684867741178448e-06</v>
+        <v>4.195052885593674e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.30078125</v>
       </c>
       <c r="AH2" t="n">
-        <v>371826.7637354531</v>
+        <v>438050.5638812723</v>
       </c>
     </row>
     <row r="3">
@@ -17758,28 +17758,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>276.5938075526137</v>
+        <v>330.186287328682</v>
       </c>
       <c r="AB3" t="n">
-        <v>378.4478499510702</v>
+        <v>451.7754451140281</v>
       </c>
       <c r="AC3" t="n">
-        <v>342.3293183066326</v>
+        <v>408.658630703164</v>
       </c>
       <c r="AD3" t="n">
-        <v>276593.8075526137</v>
+        <v>330186.287328682</v>
       </c>
       <c r="AE3" t="n">
-        <v>378447.8499510702</v>
+        <v>451775.4451140281</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.793372734477953e-06</v>
+        <v>4.364589797323494e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.78645833333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>342329.3183066326</v>
+        <v>408658.630703164</v>
       </c>
     </row>
   </sheetData>
@@ -18055,28 +18055,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>272.3492554602819</v>
+        <v>330.5979638790279</v>
       </c>
       <c r="AB2" t="n">
-        <v>372.6402665219193</v>
+        <v>452.338719132099</v>
       </c>
       <c r="AC2" t="n">
-        <v>337.0760024889654</v>
+        <v>409.1681466395102</v>
       </c>
       <c r="AD2" t="n">
-        <v>272349.2554602819</v>
+        <v>330597.9638790279</v>
       </c>
       <c r="AE2" t="n">
-        <v>372640.2665219193</v>
+        <v>452338.719132099</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.618972368550899e-06</v>
+        <v>4.268076762264319e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.63541666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>337076.0024889654</v>
+        <v>409168.1466395102</v>
       </c>
     </row>
   </sheetData>
@@ -18352,28 +18352,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>697.1481337852697</v>
+        <v>771.7376431922399</v>
       </c>
       <c r="AB2" t="n">
-        <v>953.8688326500195</v>
+        <v>1055.925490077548</v>
       </c>
       <c r="AC2" t="n">
-        <v>862.8329300252158</v>
+        <v>955.1494433052793</v>
       </c>
       <c r="AD2" t="n">
-        <v>697148.1337852697</v>
+        <v>771737.6431922399</v>
       </c>
       <c r="AE2" t="n">
-        <v>953868.8326500196</v>
+        <v>1055925.490077548</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.738407955098307e-06</v>
+        <v>2.568290543719094e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.44075520833333</v>
       </c>
       <c r="AH2" t="n">
-        <v>862832.9300252157</v>
+        <v>955149.4433052794</v>
       </c>
     </row>
     <row r="3">
@@ -18458,28 +18458,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>415.9256644846333</v>
+        <v>473.8354417585895</v>
       </c>
       <c r="AB3" t="n">
-        <v>569.0878434931615</v>
+        <v>648.322555558453</v>
       </c>
       <c r="AC3" t="n">
-        <v>514.7748984299782</v>
+        <v>586.447560782375</v>
       </c>
       <c r="AD3" t="n">
-        <v>415925.6644846332</v>
+        <v>473835.4417585895</v>
       </c>
       <c r="AE3" t="n">
-        <v>569087.8434931615</v>
+        <v>648322.555558453</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.383922266867944e-06</v>
+        <v>3.521960997130903e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.447265625</v>
       </c>
       <c r="AH3" t="n">
-        <v>514774.8984299782</v>
+        <v>586447.560782375</v>
       </c>
     </row>
     <row r="4">
@@ -18564,28 +18564,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>347.5250212476163</v>
+        <v>397.2229437369228</v>
       </c>
       <c r="AB4" t="n">
-        <v>475.4990657928685</v>
+        <v>543.4979558603377</v>
       </c>
       <c r="AC4" t="n">
-        <v>430.1181023207266</v>
+        <v>491.6272737571982</v>
       </c>
       <c r="AD4" t="n">
-        <v>347525.0212476163</v>
+        <v>397222.9437369228</v>
       </c>
       <c r="AE4" t="n">
-        <v>475499.0657928684</v>
+        <v>543497.9558603377</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.62341743181436e-06</v>
+        <v>3.875786556657603e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.22005208333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>430118.1023207266</v>
+        <v>491627.2737571982</v>
       </c>
     </row>
     <row r="5">
@@ -18670,28 +18670,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>318.2024380778836</v>
+        <v>367.9856119132108</v>
       </c>
       <c r="AB5" t="n">
-        <v>435.37861387897</v>
+        <v>503.4941485990886</v>
       </c>
       <c r="AC5" t="n">
-        <v>393.8266900280827</v>
+        <v>455.4413737152667</v>
       </c>
       <c r="AD5" t="n">
-        <v>318202.4380778836</v>
+        <v>367985.6119132108</v>
       </c>
       <c r="AE5" t="n">
-        <v>435378.61387897</v>
+        <v>503494.1485990887</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.706334754546631e-06</v>
+        <v>3.998287017645055e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.845703125</v>
       </c>
       <c r="AH5" t="n">
-        <v>393826.6900280827</v>
+        <v>455441.3737152667</v>
       </c>
     </row>
     <row r="6">
@@ -18776,28 +18776,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>319.9799944810048</v>
+        <v>369.763168316332</v>
       </c>
       <c r="AB6" t="n">
-        <v>437.8107449699742</v>
+        <v>505.9262796900929</v>
       </c>
       <c r="AC6" t="n">
-        <v>396.026701941279</v>
+        <v>457.6413856284629</v>
       </c>
       <c r="AD6" t="n">
-        <v>319979.9944810048</v>
+        <v>369763.168316332</v>
       </c>
       <c r="AE6" t="n">
-        <v>437810.7449699742</v>
+        <v>505926.2796900929</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.703872838788547e-06</v>
+        <v>3.994649830561104e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>11.85546875</v>
       </c>
       <c r="AH6" t="n">
-        <v>396026.7019412791</v>
+        <v>457641.3856284629</v>
       </c>
     </row>
   </sheetData>
@@ -19073,28 +19073,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>985.9694663914519</v>
+        <v>1079.788277639225</v>
       </c>
       <c r="AB2" t="n">
-        <v>1349.046921819714</v>
+        <v>1477.413958362754</v>
       </c>
       <c r="AC2" t="n">
-        <v>1220.295777000487</v>
+        <v>1336.411643740126</v>
       </c>
       <c r="AD2" t="n">
-        <v>985969.4663914519</v>
+        <v>1079788.277639225</v>
       </c>
       <c r="AE2" t="n">
-        <v>1349046.921819714</v>
+        <v>1477413.958362754</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.420676258846571e-06</v>
+        <v>2.063062044336452e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>22</v>
+        <v>21.74153645833333</v>
       </c>
       <c r="AH2" t="n">
-        <v>1220295.777000487</v>
+        <v>1336411.643740126</v>
       </c>
     </row>
     <row r="3">
@@ -19179,28 +19179,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>520.3457275594145</v>
+        <v>588.492249430496</v>
       </c>
       <c r="AB3" t="n">
-        <v>711.9599804801361</v>
+        <v>805.2010581165129</v>
       </c>
       <c r="AC3" t="n">
-        <v>644.0115191852196</v>
+        <v>728.353799236655</v>
       </c>
       <c r="AD3" t="n">
-        <v>520345.7275594145</v>
+        <v>588492.249430496</v>
       </c>
       <c r="AE3" t="n">
-        <v>711959.9804801361</v>
+        <v>805201.0581165128</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.121951895268731e-06</v>
+        <v>3.081432794964091e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.55729166666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>644011.5191852197</v>
+        <v>728353.799236655</v>
       </c>
     </row>
     <row r="4">
@@ -19285,28 +19285,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>423.764935510733</v>
+        <v>483.3824745411079</v>
       </c>
       <c r="AB4" t="n">
-        <v>579.8138799553002</v>
+        <v>661.3852269968551</v>
       </c>
       <c r="AC4" t="n">
-        <v>524.4772570262572</v>
+        <v>598.2635491922707</v>
       </c>
       <c r="AD4" t="n">
-        <v>423764.935510733</v>
+        <v>483382.4745411079</v>
       </c>
       <c r="AE4" t="n">
-        <v>579813.8799553002</v>
+        <v>661385.2269968551</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.386045277699431e-06</v>
+        <v>3.464941022162565e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.94596354166667</v>
       </c>
       <c r="AH4" t="n">
-        <v>524477.2570262572</v>
+        <v>598263.5491922707</v>
       </c>
     </row>
     <row r="5">
@@ -19391,28 +19391,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>385.2124577825139</v>
+        <v>436.3011034807332</v>
       </c>
       <c r="AB5" t="n">
-        <v>527.0646791122711</v>
+        <v>596.9664180285525</v>
       </c>
       <c r="AC5" t="n">
-        <v>476.7623658777183</v>
+        <v>539.9927809395366</v>
       </c>
       <c r="AD5" t="n">
-        <v>385212.4577825139</v>
+        <v>436301.1034807332</v>
       </c>
       <c r="AE5" t="n">
-        <v>527064.6791122711</v>
+        <v>596966.4180285526</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.525636138481163e-06</v>
+        <v>3.667650545054751e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.22981770833333</v>
       </c>
       <c r="AH5" t="n">
-        <v>476762.3658777183</v>
+        <v>539992.7809395366</v>
       </c>
     </row>
     <row r="6">
@@ -19497,28 +19497,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>347.7385115756097</v>
+        <v>398.9124086198496</v>
       </c>
       <c r="AB6" t="n">
-        <v>475.7911726781576</v>
+        <v>545.8095562470884</v>
       </c>
       <c r="AC6" t="n">
-        <v>430.3823309348584</v>
+        <v>493.718258247389</v>
       </c>
       <c r="AD6" t="n">
-        <v>347738.5115756097</v>
+        <v>398912.4086198496</v>
       </c>
       <c r="AE6" t="n">
-        <v>475791.1726781576</v>
+        <v>545809.5562470884</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.61777939192716e-06</v>
+        <v>3.80145812270826e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>11.80013020833333</v>
       </c>
       <c r="AH6" t="n">
-        <v>430382.3309348584</v>
+        <v>493718.258247389</v>
       </c>
     </row>
     <row r="7">
@@ -19603,28 +19603,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>344.6825954133236</v>
+        <v>395.8564924575635</v>
       </c>
       <c r="AB7" t="n">
-        <v>471.6099333674117</v>
+        <v>541.6283169363423</v>
       </c>
       <c r="AC7" t="n">
-        <v>426.6001432355238</v>
+        <v>489.9360705480543</v>
       </c>
       <c r="AD7" t="n">
-        <v>344682.5954133236</v>
+        <v>395856.4924575635</v>
       </c>
       <c r="AE7" t="n">
-        <v>471609.9333674117</v>
+        <v>541628.3169363424</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.629261712902408e-06</v>
+        <v>3.818132393456021e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>12</v>
+        <v>11.748046875</v>
       </c>
       <c r="AH7" t="n">
-        <v>426600.1432355238</v>
+        <v>489936.0705480543</v>
       </c>
     </row>
   </sheetData>
@@ -19900,28 +19900,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>284.4275364236836</v>
+        <v>348.3831713014619</v>
       </c>
       <c r="AB2" t="n">
-        <v>389.1663033921945</v>
+        <v>476.6732245554485</v>
       </c>
       <c r="AC2" t="n">
-        <v>352.02481759478</v>
+        <v>431.1802010189482</v>
       </c>
       <c r="AD2" t="n">
-        <v>284427.5364236836</v>
+        <v>348383.1713014619</v>
       </c>
       <c r="AE2" t="n">
-        <v>389166.3033921945</v>
+        <v>476673.2245554485</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.375899416836504e-06</v>
+        <v>3.960482774055787e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.70572916666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>352024.81759478</v>
+        <v>431180.2010189482</v>
       </c>
     </row>
   </sheetData>
@@ -20197,28 +20197,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>432.9858448820314</v>
+        <v>488.5837212212936</v>
       </c>
       <c r="AB2" t="n">
-        <v>592.4303349549217</v>
+        <v>668.5018021674941</v>
       </c>
       <c r="AC2" t="n">
-        <v>535.8896152680206</v>
+        <v>604.7009284167999</v>
       </c>
       <c r="AD2" t="n">
-        <v>432985.8448820314</v>
+        <v>488583.7212212936</v>
       </c>
       <c r="AE2" t="n">
-        <v>592430.3349549217</v>
+        <v>668501.8021674941</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.259650418758497e-06</v>
+        <v>3.438976935085092e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.05533854166667</v>
       </c>
       <c r="AH2" t="n">
-        <v>535889.6152680207</v>
+        <v>604700.9284167999</v>
       </c>
     </row>
     <row r="3">
@@ -20303,28 +20303,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>296.5206889918761</v>
+        <v>344.0906835007508</v>
       </c>
       <c r="AB3" t="n">
-        <v>405.7126882482334</v>
+        <v>470.8000533753188</v>
       </c>
       <c r="AC3" t="n">
-        <v>366.9920387031555</v>
+        <v>425.8675570532026</v>
       </c>
       <c r="AD3" t="n">
-        <v>296520.6889918761</v>
+        <v>344090.6835007508</v>
       </c>
       <c r="AE3" t="n">
-        <v>405712.6882482334</v>
+        <v>470800.0533753188</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.774684749438941e-06</v>
+        <v>4.222811093361736e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.26236979166667</v>
       </c>
       <c r="AH3" t="n">
-        <v>366992.0387031555</v>
+        <v>425867.5570532026</v>
       </c>
     </row>
     <row r="4">
@@ -20409,28 +20409,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>295.5145218348633</v>
+        <v>343.0845163437381</v>
       </c>
       <c r="AB4" t="n">
-        <v>404.3360059550464</v>
+        <v>469.4233710821317</v>
       </c>
       <c r="AC4" t="n">
-        <v>365.7467450358446</v>
+        <v>424.6222633858917</v>
       </c>
       <c r="AD4" t="n">
-        <v>295514.5218348633</v>
+        <v>343084.5163437381</v>
       </c>
       <c r="AE4" t="n">
-        <v>404336.0059550464</v>
+        <v>469423.3710821318</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.786494586972807e-06</v>
+        <v>4.240784563305985e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.21028645833333</v>
       </c>
       <c r="AH4" t="n">
-        <v>365746.7450358446</v>
+        <v>424622.2633858917</v>
       </c>
     </row>
   </sheetData>
@@ -20706,28 +20706,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>583.9956613389903</v>
+        <v>649.3255200717911</v>
       </c>
       <c r="AB2" t="n">
-        <v>799.0486279142489</v>
+        <v>888.4358227824218</v>
       </c>
       <c r="AC2" t="n">
-        <v>722.788548337905</v>
+        <v>803.6447547835756</v>
       </c>
       <c r="AD2" t="n">
-        <v>583995.6613389903</v>
+        <v>649325.520071791</v>
       </c>
       <c r="AE2" t="n">
-        <v>799048.6279142488</v>
+        <v>888435.8227824218</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.925914594593196e-06</v>
+        <v>2.87521849403998e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.00846354166667</v>
       </c>
       <c r="AH2" t="n">
-        <v>722788.548337905</v>
+        <v>803644.7547835757</v>
       </c>
     </row>
     <row r="3">
@@ -20812,28 +20812,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>361.3943293799986</v>
+        <v>418.4725365966452</v>
       </c>
       <c r="AB3" t="n">
-        <v>494.475665050285</v>
+        <v>572.572586276884</v>
       </c>
       <c r="AC3" t="n">
-        <v>447.2836015788398</v>
+        <v>517.9270622532895</v>
       </c>
       <c r="AD3" t="n">
-        <v>361394.3293799986</v>
+        <v>418472.5365966453</v>
       </c>
       <c r="AE3" t="n">
-        <v>494475.6650502851</v>
+        <v>572572.586276884</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.53679377451876e-06</v>
+        <v>3.787206554505848e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.91341145833333</v>
       </c>
       <c r="AH3" t="n">
-        <v>447283.6015788398</v>
+        <v>517927.0622532894</v>
       </c>
     </row>
     <row r="4">
@@ -20918,28 +20918,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>307.5112186690552</v>
+        <v>364.5040850311302</v>
       </c>
       <c r="AB4" t="n">
-        <v>420.7504158204989</v>
+        <v>498.7305699249</v>
       </c>
       <c r="AC4" t="n">
-        <v>380.5945866615072</v>
+        <v>451.1324243040179</v>
       </c>
       <c r="AD4" t="n">
-        <v>307511.2186690551</v>
+        <v>364504.0850311302</v>
       </c>
       <c r="AE4" t="n">
-        <v>420750.4158204988</v>
+        <v>498730.5699249</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.737334411249389e-06</v>
+        <v>4.086595815666856e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.96614583333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>380594.5866615071</v>
+        <v>451132.4243040179</v>
       </c>
     </row>
     <row r="5">
@@ -21024,28 +21024,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>307.6616796726889</v>
+        <v>364.654546034764</v>
       </c>
       <c r="AB5" t="n">
-        <v>420.9562832035415</v>
+        <v>498.9364373079428</v>
       </c>
       <c r="AC5" t="n">
-        <v>380.7808063504489</v>
+        <v>451.3186439929598</v>
       </c>
       <c r="AD5" t="n">
-        <v>307661.6796726889</v>
+        <v>364654.546034764</v>
       </c>
       <c r="AE5" t="n">
-        <v>420956.2832035415</v>
+        <v>498936.4373079428</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.741359311133597e-06</v>
+        <v>4.092604631746354e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.94661458333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>380780.8063504489</v>
+        <v>451318.6439929598</v>
       </c>
     </row>
   </sheetData>
